--- a/azure-disk-sizes.xlsx
+++ b/azure-disk-sizes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3cc1572739f6e00b/GitHub/azure-toolkit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C2B027A-2FC7-40AE-905F-EADC78D7983D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{2C2B027A-2FC7-40AE-905F-EADC78D7983D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{C9ACB59B-A7D0-4885-AEE7-5FDF183C12E5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{5B858E41-E614-45B4-816A-887CAADA5ACD}"/>
   </bookViews>
@@ -182,6 +182,21 @@
   </si>
   <si>
     <t>S80</t>
+  </si>
+  <si>
+    <t>Input minimum size of data storage for your VM</t>
+  </si>
+  <si>
+    <t>Input minimum amount of IOPS for your VM</t>
+  </si>
+  <si>
+    <t>Min Throughput required (MB/s)</t>
+  </si>
+  <si>
+    <t>Throughput (MB/sec)</t>
+  </si>
+  <si>
+    <t>Total Throughput (MB/sec)</t>
   </si>
   <si>
     <r>
@@ -242,7 +257,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>https://aka.ms/azure-disks-sizes</t>
+      <t>https://aka.ms/azure-disk-sizes</t>
     </r>
     <r>
       <rPr>
@@ -306,21 +321,6 @@
 Microsoft Public License license</t>
     </r>
   </si>
-  <si>
-    <t>Input minimum size of data storage for your VM</t>
-  </si>
-  <si>
-    <t>Input minimum amount of IOPS for your VM</t>
-  </si>
-  <si>
-    <t>Min Throughput required (MB/s)</t>
-  </si>
-  <si>
-    <t>Throughput (MB/sec)</t>
-  </si>
-  <si>
-    <t>Total Throughput (MB/sec)</t>
-  </si>
 </sst>
 </file>
 
@@ -329,7 +329,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -631,8 +631,22 @@
     <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -640,82 +654,12 @@
     <xf numFmtId="164" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9"/>
-      </font>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -1050,10 +994,10 @@
   <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="12" width="9.5703125" style="2" customWidth="1"/>
@@ -1061,119 +1005,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
+      <c r="A1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
     </row>
     <row r="3" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="13">
-        <v>1000</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="23" t="s">
-        <v>52</v>
+      <c r="B3" s="20">
+        <v>10000</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="18" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="13">
-        <v>500</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="23"/>
+        <v>52</v>
+      </c>
+      <c r="B4" s="20">
+        <v>0</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="13">
-        <v>2000</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="23" t="s">
-        <v>51</v>
+      <c r="B5" s="20">
+        <v>100</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="22">
         <f>MIN(B21:L21)</f>
-        <v>292.88</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="23" t="str">
+        <v>270.33999999999997</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="18" t="str">
         <f ca="1">"How much you will pay if you choose "&amp;INDIRECT(ADDRESS(17,MATCH(MIN(B21:L21), B21:L21, 0)+1))&amp;" x "&amp;INDIRECT(ADDRESS(11,MATCH(MIN(B21:L21), B21:L21, 0)+1))&amp;" Premium SSD. Premium SSD has SLA for IOPS (!!!)"</f>
-        <v>How much you will pay if you choose 4 x P20 Premium SSD. Premium SSD has SLA for IOPS (!!!)</v>
+        <v>How much you will pay if you choose 2 x P30 Premium SSD. Premium SSD has SLA for IOPS (!!!)</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="22">
         <f>MIN(B34:L34)</f>
-        <v>151.19999999999999</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="23" t="str">
+        <v>192</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="18" t="str">
         <f ca="1">"How much you will pay if you choose "&amp;INDIRECT(ADDRESS(30,MATCH(MIN(B34:L34), B34:L34, 0)+1))&amp;" x "&amp;INDIRECT(ADDRESS(24,MATCH(MIN(B34:L34), B34:L34, 0)+1))&amp;" Standard SSD. Actual IOPS and throughput may vary sometimes depending on the traffic patterns."</f>
-        <v>How much you will pay if you choose 63 x E4 Standard SSD. Actual IOPS and throughput may vary sometimes depending on the traffic patterns.</v>
+        <v>How much you will pay if you choose 20 x E10 Standard SSD. Actual IOPS and throughput may vary sometimes depending on the traffic patterns.</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="22">
         <f>MIN(B47:L47)</f>
-        <v>94.24</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="23" t="str">
+        <v>117.8</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="18" t="str">
         <f ca="1">"How much you will pay if you choose "&amp;INDIRECT(ADDRESS(43,MATCH(MIN(B47:L47), B47:L47, 0)+1))&amp;" x "&amp;INDIRECT(ADDRESS(37,MATCH(MIN(B47:L47), B47:L47, 0)+1))&amp;" Standard HDD. Actual IOPS and throughput may vary sometimes depending on the traffic patterns."</f>
-        <v>How much you will pay if you choose 16 x S10 Standard HDD. Actual IOPS and throughput may vary sometimes depending on the traffic patterns.</v>
+        <v>How much you will pay if you choose 20 x S10 Standard HDD. Actual IOPS and throughput may vary sometimes depending on the traffic patterns.</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:19" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -1217,75 +1161,75 @@
       <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="15">
         <v>120</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="15">
         <v>240</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="15">
         <v>500</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="15">
         <v>1100</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="15">
         <v>2300</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="15">
         <v>5000</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="15">
         <v>7500</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="15">
         <v>7500</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="15">
         <v>16000</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="15">
         <v>18000</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="15">
         <v>20000</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="19">
+        <v>53</v>
+      </c>
+      <c r="B13" s="15">
         <v>25</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="15">
         <v>50</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="15">
         <v>100</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="15">
         <v>125</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="15">
         <v>150</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="15">
         <v>200</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="15">
         <v>250</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="15">
         <v>250</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="15">
         <v>500</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="15">
         <v>750</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="15">
         <v>900</v>
       </c>
     </row>
@@ -1293,37 +1237,37 @@
       <c r="A14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="15">
         <v>32</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="15">
         <v>64</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="15">
         <v>128</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="15">
         <v>256</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="15">
         <v>512</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="15">
         <v>1023</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="15">
         <v>2047</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="15">
         <v>4095</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="15">
         <v>8192</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="15">
         <v>16383</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="15">
         <v>32767</v>
       </c>
     </row>
@@ -1366,47 +1310,47 @@
       </c>
     </row>
     <row r="16" spans="1:19" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B16" s="16">
+      <c r="B16" s="13">
         <f>MAX( ROUNDUP($B$3 / B12,0), ROUNDUP($B$5 / B14,0), ROUNDUP($B$4 / B13,0) )</f>
-        <v>63</v>
-      </c>
-      <c r="C16" s="16">
+        <v>84</v>
+      </c>
+      <c r="C16" s="13">
         <f t="shared" ref="C16:L16" si="0">MAX( ROUNDUP($B$3 / C12,0), ROUNDUP($B$5 / C14,0), ROUNDUP($B$4 / C13,0) )</f>
-        <v>32</v>
-      </c>
-      <c r="D16" s="16">
+        <v>42</v>
+      </c>
+      <c r="D16" s="13">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E16" s="16">
+        <v>20</v>
+      </c>
+      <c r="E16" s="13">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F16" s="16">
+        <v>10</v>
+      </c>
+      <c r="F16" s="13">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G16" s="16">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H16" s="16">
+        <v>5</v>
+      </c>
+      <c r="G16" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I16" s="16">
+      <c r="H16" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J16" s="16">
+      <c r="I16" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J16" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1415,29 +1359,29 @@
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="6" t="str">
         <f>IF(B16&lt;=64,B16,"")</f>
-        <v>63</v>
+        <v/>
       </c>
       <c r="C17" s="6">
         <f t="shared" ref="C17:L17" si="1">IF(C16&lt;=64,C16,"")</f>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" si="1"/>
@@ -1464,96 +1408,96 @@
       <c r="A18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="15" t="str">
         <f>IF(B17&lt;&gt;"",B12*B17,"")</f>
-        <v>7560</v>
-      </c>
-      <c r="C18" s="19">
+        <v/>
+      </c>
+      <c r="C18" s="15">
         <f t="shared" ref="C18:L18" si="2">IF(C17&lt;&gt;"",C12*C17,"")</f>
-        <v>7680</v>
-      </c>
-      <c r="D18" s="19">
+        <v>10080</v>
+      </c>
+      <c r="D18" s="15">
         <f t="shared" si="2"/>
-        <v>8000</v>
-      </c>
-      <c r="E18" s="19">
+        <v>10000</v>
+      </c>
+      <c r="E18" s="15">
         <f t="shared" si="2"/>
-        <v>8800</v>
-      </c>
-      <c r="F18" s="19">
+        <v>11000</v>
+      </c>
+      <c r="F18" s="15">
         <f t="shared" si="2"/>
-        <v>9200</v>
-      </c>
-      <c r="G18" s="19">
+        <v>11500</v>
+      </c>
+      <c r="G18" s="15">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="H18" s="15">
         <f t="shared" si="2"/>
         <v>15000</v>
       </c>
-      <c r="H18" s="19">
+      <c r="I18" s="15">
         <f t="shared" si="2"/>
         <v>15000</v>
       </c>
-      <c r="I18" s="19">
-        <f t="shared" si="2"/>
-        <v>15000</v>
-      </c>
-      <c r="J18" s="19">
+      <c r="J18" s="15">
         <f t="shared" si="2"/>
         <v>16000</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="15">
         <f t="shared" si="2"/>
         <v>18000</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="15">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="19">
+        <v>54</v>
+      </c>
+      <c r="B19" s="15" t="str">
         <f>IF(B17&lt;&gt;"",B13*B17,"")</f>
-        <v>1575</v>
-      </c>
-      <c r="C19" s="19">
+        <v/>
+      </c>
+      <c r="C19" s="15">
         <f t="shared" ref="C19:L19" si="3">IF(C17&lt;&gt;"",C13*C17,"")</f>
-        <v>1600</v>
-      </c>
-      <c r="D19" s="19">
+        <v>2100</v>
+      </c>
+      <c r="D19" s="15">
         <f t="shared" si="3"/>
-        <v>1600</v>
-      </c>
-      <c r="E19" s="19">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="15">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="F19" s="19">
+        <v>1250</v>
+      </c>
+      <c r="F19" s="15">
         <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="G19" s="19">
+        <v>750</v>
+      </c>
+      <c r="G19" s="15">
         <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="H19" s="19">
+        <v>400</v>
+      </c>
+      <c r="H19" s="15">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="15">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="15">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="15">
         <f t="shared" si="3"/>
         <v>750</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="15">
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
@@ -1562,47 +1506,47 @@
       <c r="A20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="15" t="str">
         <f>IF(B17&lt;&gt;"",B14*B17,"")</f>
-        <v>2016</v>
-      </c>
-      <c r="C20" s="19">
+        <v/>
+      </c>
+      <c r="C20" s="15">
         <f t="shared" ref="C20:L20" si="4">IF(C17&lt;&gt;"",C14*C17,"")</f>
-        <v>2048</v>
-      </c>
-      <c r="D20" s="19">
+        <v>2688</v>
+      </c>
+      <c r="D20" s="15">
         <f t="shared" si="4"/>
-        <v>2048</v>
-      </c>
-      <c r="E20" s="19">
+        <v>2560</v>
+      </c>
+      <c r="E20" s="15">
         <f t="shared" si="4"/>
-        <v>2048</v>
-      </c>
-      <c r="F20" s="19">
+        <v>2560</v>
+      </c>
+      <c r="F20" s="15">
         <f t="shared" si="4"/>
-        <v>2048</v>
-      </c>
-      <c r="G20" s="19">
+        <v>2560</v>
+      </c>
+      <c r="G20" s="15">
         <f t="shared" si="4"/>
-        <v>3069</v>
-      </c>
-      <c r="H20" s="19">
+        <v>2046</v>
+      </c>
+      <c r="H20" s="15">
         <f t="shared" si="4"/>
         <v>4094</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="15">
         <f t="shared" si="4"/>
         <v>8190</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="15">
         <f t="shared" si="4"/>
         <v>8192</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="15">
         <f t="shared" si="4"/>
         <v>16383</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="15">
         <f t="shared" si="4"/>
         <v>32767</v>
       </c>
@@ -1611,67 +1555,67 @@
       <c r="A21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="14" t="str">
         <f>IF(B17&lt;&gt;"",B15*B17,"to many disks")</f>
-        <v>332.64000000000004</v>
-      </c>
-      <c r="C21" s="17">
+        <v>to many disks</v>
+      </c>
+      <c r="C21" s="14">
         <f t="shared" ref="C21:L21" si="5">IF(C17&lt;&gt;"",C15*C17,"to many disks")</f>
-        <v>326.72000000000003</v>
-      </c>
-      <c r="D21" s="17">
+        <v>428.82000000000005</v>
+      </c>
+      <c r="D21" s="14">
         <f t="shared" si="5"/>
-        <v>315.36</v>
-      </c>
-      <c r="E21" s="17">
+        <v>394.20000000000005</v>
+      </c>
+      <c r="E21" s="14">
         <f t="shared" si="5"/>
-        <v>304.16000000000003</v>
-      </c>
-      <c r="F21" s="17">
+        <v>380.20000000000005</v>
+      </c>
+      <c r="F21" s="14">
         <f t="shared" si="5"/>
-        <v>292.88</v>
-      </c>
-      <c r="G21" s="17">
+        <v>366.1</v>
+      </c>
+      <c r="G21" s="14">
         <f t="shared" si="5"/>
-        <v>405.51</v>
-      </c>
-      <c r="H21" s="17">
+        <v>270.33999999999997</v>
+      </c>
+      <c r="H21" s="14">
         <f t="shared" si="5"/>
         <v>518.1</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="14">
         <f t="shared" si="5"/>
         <v>991.14</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="14">
         <f t="shared" si="5"/>
         <v>946.08</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="14">
         <f t="shared" si="5"/>
         <v>1802.06</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="14">
         <f t="shared" si="5"/>
         <v>3604.11</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
     </row>
     <row r="24" spans="1:12" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
@@ -1715,75 +1659,75 @@
       <c r="A25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="15">
         <v>120</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="15">
         <v>240</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="15">
         <v>500</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="15">
         <v>500</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="15">
         <v>500</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="15">
         <v>500</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="15">
         <v>500</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="15">
         <v>500</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="15">
         <v>2000</v>
       </c>
-      <c r="K25" s="19">
+      <c r="K25" s="15">
         <v>4000</v>
       </c>
-      <c r="L25" s="20">
+      <c r="L25" s="16">
         <v>6000</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="19">
+        <v>53</v>
+      </c>
+      <c r="B26" s="15">
         <v>25</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="15">
         <v>50</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="15">
         <v>60</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="15">
         <v>60</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="15">
         <v>60</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="15">
         <v>60</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="15">
         <v>60</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="15">
         <v>60</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J26" s="15">
         <v>400</v>
       </c>
-      <c r="K26" s="19">
+      <c r="K26" s="15">
         <v>600</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="16">
         <v>750</v>
       </c>
     </row>
@@ -1791,37 +1735,37 @@
       <c r="A27" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="15">
         <v>32</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="15">
         <v>64</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="15">
         <v>128</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="15">
         <v>256</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="15">
         <v>512</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="15">
         <v>1023</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="15">
         <v>2047</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="15">
         <v>4095</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J27" s="15">
         <v>8192</v>
       </c>
-      <c r="K27" s="19">
+      <c r="K27" s="15">
         <v>16383</v>
       </c>
-      <c r="L27" s="20">
+      <c r="L27" s="16">
         <v>32767</v>
       </c>
     </row>
@@ -1864,311 +1808,311 @@
       </c>
     </row>
     <row r="29" spans="1:12" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B29" s="16">
+      <c r="B29" s="13">
         <f>MAX( ROUNDUP($B$3 / B25,0), ROUNDUP($B$5 / B27,0), ROUNDUP($B$4 / B26,0) )</f>
-        <v>63</v>
-      </c>
-      <c r="C29" s="16">
+        <v>84</v>
+      </c>
+      <c r="C29" s="13">
         <f t="shared" ref="C29:L29" si="6">MAX( ROUNDUP($B$3 / C25,0), ROUNDUP($B$5 / C27,0), ROUNDUP($B$4 / C26,0) )</f>
-        <v>32</v>
-      </c>
-      <c r="D29" s="16">
+        <v>42</v>
+      </c>
+      <c r="D29" s="13">
         <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="E29" s="16">
+        <v>20</v>
+      </c>
+      <c r="E29" s="13">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="F29" s="16">
+        <v>20</v>
+      </c>
+      <c r="F29" s="13">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="G29" s="16">
+        <v>20</v>
+      </c>
+      <c r="G29" s="13">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="H29" s="16">
+        <v>20</v>
+      </c>
+      <c r="H29" s="13">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="I29" s="16">
+        <v>20</v>
+      </c>
+      <c r="I29" s="13">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="J29" s="16">
+        <v>20</v>
+      </c>
+      <c r="J29" s="13">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="K29" s="13">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="L29" s="13">
         <f t="shared" si="6"/>
         <v>2</v>
-      </c>
-      <c r="K29" s="16">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="L29" s="16">
-        <f t="shared" si="6"/>
-        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="6" t="str">
         <f>IF(B29&lt;=64,B29,"")</f>
-        <v>63</v>
+        <v/>
       </c>
       <c r="C30" s="6">
         <f t="shared" ref="C30:L30" si="7">IF(C29&lt;=64,C29,"")</f>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E30" s="6">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I30" s="6">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J30" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30" s="6">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="15" t="str">
         <f>IF(B30&lt;&gt;"",B25*B30,"")</f>
-        <v>7560</v>
-      </c>
-      <c r="C31" s="19">
+        <v/>
+      </c>
+      <c r="C31" s="15">
         <f t="shared" ref="C31:L31" si="8">IF(C30&lt;&gt;"",C25*C30,"")</f>
-        <v>7680</v>
-      </c>
-      <c r="D31" s="19">
+        <v>10080</v>
+      </c>
+      <c r="D31" s="15">
         <f t="shared" si="8"/>
-        <v>8000</v>
-      </c>
-      <c r="E31" s="19">
+        <v>10000</v>
+      </c>
+      <c r="E31" s="15">
         <f t="shared" si="8"/>
-        <v>4500</v>
-      </c>
-      <c r="F31" s="19">
+        <v>10000</v>
+      </c>
+      <c r="F31" s="15">
         <f t="shared" si="8"/>
-        <v>4500</v>
-      </c>
-      <c r="G31" s="19">
+        <v>10000</v>
+      </c>
+      <c r="G31" s="15">
         <f t="shared" si="8"/>
-        <v>4500</v>
-      </c>
-      <c r="H31" s="19">
+        <v>10000</v>
+      </c>
+      <c r="H31" s="15">
         <f t="shared" si="8"/>
-        <v>4500</v>
-      </c>
-      <c r="I31" s="19">
+        <v>10000</v>
+      </c>
+      <c r="I31" s="15">
         <f t="shared" si="8"/>
-        <v>4500</v>
-      </c>
-      <c r="J31" s="19">
+        <v>10000</v>
+      </c>
+      <c r="J31" s="15">
         <f t="shared" si="8"/>
-        <v>4000</v>
-      </c>
-      <c r="K31" s="19">
+        <v>10000</v>
+      </c>
+      <c r="K31" s="15">
         <f t="shared" si="8"/>
-        <v>4000</v>
-      </c>
-      <c r="L31" s="19">
+        <v>12000</v>
+      </c>
+      <c r="L31" s="15">
         <f t="shared" si="8"/>
-        <v>6000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="19">
+        <v>54</v>
+      </c>
+      <c r="B32" s="15" t="str">
         <f>IF(B30&lt;&gt;"",B26*B30,"")</f>
-        <v>1575</v>
-      </c>
-      <c r="C32" s="19">
+        <v/>
+      </c>
+      <c r="C32" s="15">
         <f t="shared" ref="C32:L32" si="9">IF(C30&lt;&gt;"",C26*C30,"")</f>
-        <v>1600</v>
-      </c>
-      <c r="D32" s="19">
+        <v>2100</v>
+      </c>
+      <c r="D32" s="15">
         <f t="shared" si="9"/>
-        <v>960</v>
-      </c>
-      <c r="E32" s="19">
+        <v>1200</v>
+      </c>
+      <c r="E32" s="15">
         <f t="shared" si="9"/>
-        <v>540</v>
-      </c>
-      <c r="F32" s="19">
+        <v>1200</v>
+      </c>
+      <c r="F32" s="15">
         <f t="shared" si="9"/>
-        <v>540</v>
-      </c>
-      <c r="G32" s="19">
+        <v>1200</v>
+      </c>
+      <c r="G32" s="15">
         <f t="shared" si="9"/>
-        <v>540</v>
-      </c>
-      <c r="H32" s="19">
+        <v>1200</v>
+      </c>
+      <c r="H32" s="15">
         <f t="shared" si="9"/>
-        <v>540</v>
-      </c>
-      <c r="I32" s="19">
+        <v>1200</v>
+      </c>
+      <c r="I32" s="15">
         <f t="shared" si="9"/>
-        <v>540</v>
-      </c>
-      <c r="J32" s="19">
+        <v>1200</v>
+      </c>
+      <c r="J32" s="15">
         <f t="shared" si="9"/>
-        <v>800</v>
-      </c>
-      <c r="K32" s="19">
+        <v>2000</v>
+      </c>
+      <c r="K32" s="15">
         <f t="shared" si="9"/>
-        <v>600</v>
-      </c>
-      <c r="L32" s="19">
+        <v>1800</v>
+      </c>
+      <c r="L32" s="15">
         <f t="shared" si="9"/>
-        <v>750</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="15" t="str">
         <f>IF(B30&lt;&gt;"",B27*B30,"")</f>
-        <v>2016</v>
-      </c>
-      <c r="C33" s="19">
+        <v/>
+      </c>
+      <c r="C33" s="15">
         <f t="shared" ref="C33:L33" si="10">IF(C30&lt;&gt;"",C27*C30,"")</f>
-        <v>2048</v>
-      </c>
-      <c r="D33" s="19">
+        <v>2688</v>
+      </c>
+      <c r="D33" s="15">
         <f t="shared" si="10"/>
-        <v>2048</v>
-      </c>
-      <c r="E33" s="19">
+        <v>2560</v>
+      </c>
+      <c r="E33" s="15">
         <f t="shared" si="10"/>
-        <v>2304</v>
-      </c>
-      <c r="F33" s="19">
+        <v>5120</v>
+      </c>
+      <c r="F33" s="15">
         <f t="shared" si="10"/>
-        <v>4608</v>
-      </c>
-      <c r="G33" s="19">
+        <v>10240</v>
+      </c>
+      <c r="G33" s="15">
         <f t="shared" si="10"/>
-        <v>9207</v>
-      </c>
-      <c r="H33" s="19">
+        <v>20460</v>
+      </c>
+      <c r="H33" s="15">
         <f t="shared" si="10"/>
-        <v>18423</v>
-      </c>
-      <c r="I33" s="19">
+        <v>40940</v>
+      </c>
+      <c r="I33" s="15">
         <f t="shared" si="10"/>
-        <v>36855</v>
-      </c>
-      <c r="J33" s="19">
+        <v>81900</v>
+      </c>
+      <c r="J33" s="15">
         <f t="shared" si="10"/>
-        <v>16384</v>
-      </c>
-      <c r="K33" s="19">
+        <v>40960</v>
+      </c>
+      <c r="K33" s="15">
         <f t="shared" si="10"/>
-        <v>16383</v>
-      </c>
-      <c r="L33" s="19">
+        <v>49149</v>
+      </c>
+      <c r="L33" s="15">
         <f t="shared" si="10"/>
-        <v>32767</v>
+        <v>65534</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="14" t="str">
         <f>IF(B30&lt;&gt;"",B28*B30,"to many disks")</f>
-        <v>151.19999999999999</v>
-      </c>
-      <c r="C34" s="17">
+        <v>to many disks</v>
+      </c>
+      <c r="C34" s="14">
         <f t="shared" ref="C34:L34" si="11">IF(C30&lt;&gt;"",C28*C30,"to many disks")</f>
-        <v>153.6</v>
-      </c>
-      <c r="D34" s="17">
+        <v>201.6</v>
+      </c>
+      <c r="D34" s="14">
         <f t="shared" si="11"/>
-        <v>153.6</v>
-      </c>
-      <c r="E34" s="17">
+        <v>192</v>
+      </c>
+      <c r="E34" s="14">
         <f t="shared" si="11"/>
-        <v>172.79999999999998</v>
-      </c>
-      <c r="F34" s="17">
+        <v>384</v>
+      </c>
+      <c r="F34" s="14">
         <f t="shared" si="11"/>
-        <v>345.59999999999997</v>
-      </c>
-      <c r="G34" s="17">
+        <v>768</v>
+      </c>
+      <c r="G34" s="14">
         <f t="shared" si="11"/>
-        <v>691.19999999999993</v>
-      </c>
-      <c r="H34" s="17">
+        <v>1536</v>
+      </c>
+      <c r="H34" s="14">
         <f t="shared" si="11"/>
-        <v>1382.3999999999999</v>
-      </c>
-      <c r="I34" s="17">
+        <v>3072</v>
+      </c>
+      <c r="I34" s="14">
         <f t="shared" si="11"/>
-        <v>2764.7999999999997</v>
-      </c>
-      <c r="J34" s="17">
+        <v>6144</v>
+      </c>
+      <c r="J34" s="14">
         <f t="shared" si="11"/>
-        <v>1228.8</v>
-      </c>
-      <c r="K34" s="17">
+        <v>3072</v>
+      </c>
+      <c r="K34" s="14">
         <f t="shared" si="11"/>
-        <v>1228.8</v>
-      </c>
-      <c r="L34" s="17">
+        <v>3686.3999999999996</v>
+      </c>
+      <c r="L34" s="14">
         <f t="shared" si="11"/>
-        <v>2457.6</v>
+        <v>4915.2</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="22" t="s">
+      <c r="A36" s="17"/>
+      <c r="B36" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
     </row>
     <row r="37" spans="1:12" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
@@ -2212,75 +2156,75 @@
       <c r="A38" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="15">
         <v>120</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C38" s="15">
         <v>240</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="15">
         <v>500</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="15">
         <v>500</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F38" s="15">
         <v>500</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G38" s="15">
         <v>500</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38" s="15">
         <v>500</v>
       </c>
-      <c r="I38" s="19">
+      <c r="I38" s="15">
         <v>500</v>
       </c>
-      <c r="J38" s="19">
+      <c r="J38" s="15">
         <v>2000</v>
       </c>
-      <c r="K38" s="19">
+      <c r="K38" s="15">
         <v>4000</v>
       </c>
-      <c r="L38" s="19">
+      <c r="L38" s="15">
         <v>6000</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="19">
+        <v>53</v>
+      </c>
+      <c r="B39" s="15">
         <v>60</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="15">
         <v>60</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="15">
         <v>60</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="15">
         <v>60</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="15">
         <v>60</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="15">
         <v>60</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H39" s="15">
         <v>60</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I39" s="15">
         <v>60</v>
       </c>
-      <c r="J39" s="19">
+      <c r="J39" s="15">
         <v>300</v>
       </c>
-      <c r="K39" s="19">
+      <c r="K39" s="15">
         <v>500</v>
       </c>
-      <c r="L39" s="19">
+      <c r="L39" s="15">
         <v>500</v>
       </c>
     </row>
@@ -2288,37 +2232,37 @@
       <c r="A40" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="15">
         <v>32</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="15">
         <v>64</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="15">
         <v>128</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="15">
         <v>256</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="15">
         <v>512</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="15">
         <v>1023</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="15">
         <v>2047</v>
       </c>
-      <c r="I40" s="19">
+      <c r="I40" s="15">
         <v>4095</v>
       </c>
-      <c r="J40" s="19">
+      <c r="J40" s="15">
         <v>8192</v>
       </c>
-      <c r="K40" s="19">
+      <c r="K40" s="15">
         <v>16383</v>
       </c>
-      <c r="L40" s="19">
+      <c r="L40" s="15">
         <v>32767</v>
       </c>
     </row>
@@ -2361,298 +2305,300 @@
       </c>
     </row>
     <row r="42" spans="1:12" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B42" s="16">
+      <c r="B42" s="13">
         <f t="shared" ref="B42:L42" si="12">MAX( ROUNDUP($B$3 / B38,0), ROUNDUP($B$5 / B40,0), ROUNDUP($B$4 / B39,0) )</f>
-        <v>63</v>
-      </c>
-      <c r="C42" s="16">
+        <v>84</v>
+      </c>
+      <c r="C42" s="13">
         <f t="shared" si="12"/>
-        <v>32</v>
-      </c>
-      <c r="D42" s="16">
+        <v>42</v>
+      </c>
+      <c r="D42" s="13">
         <f t="shared" si="12"/>
-        <v>16</v>
-      </c>
-      <c r="E42" s="16">
+        <v>20</v>
+      </c>
+      <c r="E42" s="13">
         <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="F42" s="16">
+        <v>20</v>
+      </c>
+      <c r="F42" s="13">
         <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="G42" s="16">
+        <v>20</v>
+      </c>
+      <c r="G42" s="13">
         <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="H42" s="16">
+        <v>20</v>
+      </c>
+      <c r="H42" s="13">
         <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="I42" s="16">
+        <v>20</v>
+      </c>
+      <c r="I42" s="13">
         <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="J42" s="16">
+        <v>20</v>
+      </c>
+      <c r="J42" s="13">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="K42" s="13">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="L42" s="13">
         <f t="shared" si="12"/>
         <v>2</v>
-      </c>
-      <c r="K42" s="16">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="L42" s="16">
-        <f t="shared" si="12"/>
-        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:12" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="6" t="str">
         <f>IF(B42&lt;=64,B42,"")</f>
-        <v>63</v>
+        <v/>
       </c>
       <c r="C43" s="6">
         <f t="shared" ref="C43:L43" si="13">IF(C42&lt;=64,C42,"")</f>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D43" s="6">
         <f t="shared" si="13"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E43" s="6">
         <f t="shared" si="13"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F43" s="6">
         <f t="shared" si="13"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G43" s="6">
         <f t="shared" si="13"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H43" s="6">
         <f t="shared" si="13"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I43" s="6">
         <f t="shared" si="13"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J43" s="6">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K43" s="6">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L43" s="6">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="15" t="str">
         <f>IF(B43&lt;&gt;"",B38*B43,"")</f>
-        <v>7560</v>
-      </c>
-      <c r="C44" s="19">
+        <v/>
+      </c>
+      <c r="C44" s="15">
         <f t="shared" ref="C44:L44" si="14">IF(C43&lt;&gt;"",C38*C43,"")</f>
-        <v>7680</v>
-      </c>
-      <c r="D44" s="19">
+        <v>10080</v>
+      </c>
+      <c r="D44" s="15">
         <f t="shared" si="14"/>
-        <v>8000</v>
-      </c>
-      <c r="E44" s="19">
+        <v>10000</v>
+      </c>
+      <c r="E44" s="15">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-      <c r="F44" s="19">
+        <v>10000</v>
+      </c>
+      <c r="F44" s="15">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-      <c r="G44" s="19">
+        <v>10000</v>
+      </c>
+      <c r="G44" s="15">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-      <c r="H44" s="19">
+        <v>10000</v>
+      </c>
+      <c r="H44" s="15">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-      <c r="I44" s="19">
+        <v>10000</v>
+      </c>
+      <c r="I44" s="15">
         <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-      <c r="J44" s="19">
+        <v>10000</v>
+      </c>
+      <c r="J44" s="15">
         <f t="shared" si="14"/>
-        <v>4000</v>
-      </c>
-      <c r="K44" s="19">
+        <v>10000</v>
+      </c>
+      <c r="K44" s="15">
         <f t="shared" si="14"/>
-        <v>4000</v>
-      </c>
-      <c r="L44" s="19">
+        <v>12000</v>
+      </c>
+      <c r="L44" s="15">
         <f t="shared" si="14"/>
-        <v>6000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="45" spans="1:12" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="19">
+        <v>54</v>
+      </c>
+      <c r="B45" s="15" t="str">
         <f>IF(B43&lt;&gt;"",B39*B43,"")</f>
-        <v>3780</v>
-      </c>
-      <c r="C45" s="19">
+        <v/>
+      </c>
+      <c r="C45" s="15">
         <f t="shared" ref="C45:L45" si="15">IF(C43&lt;&gt;"",C39*C43,"")</f>
-        <v>1920</v>
-      </c>
-      <c r="D45" s="19">
+        <v>2520</v>
+      </c>
+      <c r="D45" s="15">
         <f t="shared" si="15"/>
-        <v>960</v>
-      </c>
-      <c r="E45" s="19">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="15">
         <f t="shared" si="15"/>
-        <v>540</v>
-      </c>
-      <c r="F45" s="19">
+        <v>1200</v>
+      </c>
+      <c r="F45" s="15">
         <f t="shared" si="15"/>
-        <v>540</v>
-      </c>
-      <c r="G45" s="19">
+        <v>1200</v>
+      </c>
+      <c r="G45" s="15">
         <f t="shared" si="15"/>
-        <v>540</v>
-      </c>
-      <c r="H45" s="19">
+        <v>1200</v>
+      </c>
+      <c r="H45" s="15">
         <f t="shared" si="15"/>
-        <v>540</v>
-      </c>
-      <c r="I45" s="19">
+        <v>1200</v>
+      </c>
+      <c r="I45" s="15">
         <f t="shared" si="15"/>
-        <v>540</v>
-      </c>
-      <c r="J45" s="19">
+        <v>1200</v>
+      </c>
+      <c r="J45" s="15">
         <f t="shared" si="15"/>
-        <v>600</v>
-      </c>
-      <c r="K45" s="19">
+        <v>1500</v>
+      </c>
+      <c r="K45" s="15">
         <f t="shared" si="15"/>
-        <v>500</v>
-      </c>
-      <c r="L45" s="19">
+        <v>1500</v>
+      </c>
+      <c r="L45" s="15">
         <f t="shared" si="15"/>
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B46" s="15" t="str">
         <f>IF(B43&lt;&gt;"",B40*B43,"")</f>
-        <v>2016</v>
-      </c>
-      <c r="C46" s="19">
+        <v/>
+      </c>
+      <c r="C46" s="15">
         <f t="shared" ref="C46:L46" si="16">IF(C43&lt;&gt;"",C40*C43,"")</f>
-        <v>2048</v>
-      </c>
-      <c r="D46" s="19">
+        <v>2688</v>
+      </c>
+      <c r="D46" s="15">
         <f t="shared" si="16"/>
-        <v>2048</v>
-      </c>
-      <c r="E46" s="19">
+        <v>2560</v>
+      </c>
+      <c r="E46" s="15">
         <f t="shared" si="16"/>
-        <v>2304</v>
-      </c>
-      <c r="F46" s="19">
+        <v>5120</v>
+      </c>
+      <c r="F46" s="15">
         <f t="shared" si="16"/>
-        <v>4608</v>
-      </c>
-      <c r="G46" s="19">
+        <v>10240</v>
+      </c>
+      <c r="G46" s="15">
         <f t="shared" si="16"/>
-        <v>9207</v>
-      </c>
-      <c r="H46" s="19">
+        <v>20460</v>
+      </c>
+      <c r="H46" s="15">
         <f t="shared" si="16"/>
-        <v>18423</v>
-      </c>
-      <c r="I46" s="19">
+        <v>40940</v>
+      </c>
+      <c r="I46" s="15">
         <f t="shared" si="16"/>
-        <v>36855</v>
-      </c>
-      <c r="J46" s="19">
+        <v>81900</v>
+      </c>
+      <c r="J46" s="15">
         <f t="shared" si="16"/>
-        <v>16384</v>
-      </c>
-      <c r="K46" s="19">
+        <v>40960</v>
+      </c>
+      <c r="K46" s="15">
         <f t="shared" si="16"/>
-        <v>16383</v>
-      </c>
-      <c r="L46" s="19">
+        <v>49149</v>
+      </c>
+      <c r="L46" s="15">
         <f t="shared" si="16"/>
-        <v>32767</v>
+        <v>65534</v>
       </c>
     </row>
     <row r="47" spans="1:12" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="14" t="str">
         <f>IF(B43&lt;&gt;"",B41*B43,"to many disks")</f>
-        <v>97.02</v>
-      </c>
-      <c r="C47" s="17">
+        <v>to many disks</v>
+      </c>
+      <c r="C47" s="14">
         <f t="shared" ref="C47:L47" si="17">IF(C43&lt;&gt;"",C41*C43,"to many disks")</f>
-        <v>96.32</v>
-      </c>
-      <c r="D47" s="17">
+        <v>126.41999999999999</v>
+      </c>
+      <c r="D47" s="14">
         <f t="shared" si="17"/>
-        <v>94.24</v>
-      </c>
-      <c r="E47" s="17">
+        <v>117.8</v>
+      </c>
+      <c r="E47" s="14">
         <f t="shared" si="17"/>
-        <v>101.97</v>
-      </c>
-      <c r="F47" s="17">
+        <v>226.6</v>
+      </c>
+      <c r="F47" s="14">
         <f t="shared" si="17"/>
-        <v>195.84</v>
-      </c>
-      <c r="G47" s="17">
+        <v>435.20000000000005</v>
+      </c>
+      <c r="G47" s="14">
         <f t="shared" si="17"/>
-        <v>368.64</v>
-      </c>
-      <c r="H47" s="17">
+        <v>819.2</v>
+      </c>
+      <c r="H47" s="14">
         <f t="shared" si="17"/>
-        <v>737.28</v>
-      </c>
-      <c r="I47" s="17">
+        <v>1638.4</v>
+      </c>
+      <c r="I47" s="14">
         <f t="shared" si="17"/>
-        <v>1474.56</v>
-      </c>
-      <c r="J47" s="17">
+        <v>3276.8</v>
+      </c>
+      <c r="J47" s="14">
         <f t="shared" si="17"/>
-        <v>655.36</v>
-      </c>
-      <c r="K47" s="17">
+        <v>1638.4</v>
+      </c>
+      <c r="K47" s="14">
         <f t="shared" si="17"/>
-        <v>655.36</v>
-      </c>
-      <c r="L47" s="17">
+        <v>1966.08</v>
+      </c>
+      <c r="L47" s="14">
         <f t="shared" si="17"/>
-        <v>1310.72</v>
+        <v>2621.44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="B10:L10"/>
     <mergeCell ref="B23:L23"/>
     <mergeCell ref="B36:L36"/>
@@ -2661,8 +2607,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B21:L21 B34:L34 B47:L47">
